--- a/qa/02.文档分析/副本系统/副本入口设计/副本入口设计-文档分析.xlsx
+++ b/qa/02.文档分析/副本系统/副本入口设计/副本入口设计-文档分析.xlsx
@@ -34,7 +34,7 @@
     <definedName name="章节数开启规则">副本选择!$E$100:$F$102</definedName>
     <definedName name="重置失败提示确认框">副本信息!$H$181:$Y$208</definedName>
   </definedNames>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="887">
   <si>
     <t>整体UI样式</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -4011,10 +4011,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1.优先按照怪物的等级从高至低排列</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>2.然后按照怪物的稀有度从高至低排列</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -4140,10 +4136,6 @@
   </si>
   <si>
     <t>当玩家使用一个阵型进入副本后，则该阵型自动记录为下一次进入副本的默认选择</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击敌方怪物Icon会弹出怪物介绍tips</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -4374,37 +4366,6 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>chong'fu</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个副本单独记录一个阵容还是如何区分？</t>
-    <rPh sb="0" eb="1">
-      <t>mei'ge</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fu'b</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>dan'du</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ji'lu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yi'g</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zhen'rong</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>hai'shi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ru'he</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>q'f</t>
     </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -4698,10 +4659,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>这个按钮更像是提示玩家点击按钮右翻页</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>拉至最右还能继续拉动么？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -4734,10 +4691,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>具体怎么调用，程序怎么知道要显示的是哪个技能？加配置？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>具体储存的规则？在哪存？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -4750,10 +4703,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>不同活动副本保存的是同一个阵型么？有区分么</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>再次点击有什么逻辑？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -4766,10 +4715,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>副本信息里的怪物显示规则和这个是否是一致的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>UI规范里没有这种界面</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -4782,19 +4727,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>为何不告诉玩家，显示个问号是否合适</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里的好友列表是指好友中的列表，还是图中下面列表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家拥有宠物列表中该宠物黑色遮罩与对勾消失</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家拥有宠物列表与好友列表排列顺序</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
@@ -4862,10 +4795,6 @@
   </si>
   <si>
     <t>现在界面设计是否要用英文的？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准中X和确定只有一个吧，这个界面用两个按钮的设计目的是？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -4985,10 +4914,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>条件不全，同时满足1,2,3时是否顺序不做限制？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>不是随机，是不限制吧，不限制比较好吧</t>
     <rPh sb="0" eb="1">
       <t>bu'shi</t>
@@ -5013,6 +4938,50 @@
   <si>
     <t>副本结算时，助战好友是否获得经验奖励等？需要补结算文档？</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击敌方怪物Icon会弹出怪物介绍tips</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本信息里的怪物显示规则和这个是否是一致的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准中X和确定只有一个吧，这个界面用两个按钮的设计目的是？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体怎么调用，程序怎么知道要显示的是哪个技能？加配置？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>为何不告诉玩家，显示个问号是否合适</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同活动副本保存的是同一个阵型么？有区分么</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里的好友列表是指好友中的列表，还是图中下面列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家拥有宠物列表与好友列表排列顺序</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件不全，同时满足1,2,3时是否顺序不做限制？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个按钮更像是提示玩家点击按钮右翻页</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.优先按照怪物的等级从高至低排列</t>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -16844,13 +16813,13 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>205505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>12153</xdr:rowOff>
+      <xdr:rowOff>12163</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -16859,10 +16828,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16925925" y="17811750"/>
-          <a:ext cx="504824" cy="907503"/>
-          <a:chOff x="10429875" y="15430500"/>
-          <a:chExt cx="514349" cy="488403"/>
+          <a:off x="16925925" y="17864855"/>
+          <a:ext cx="504824" cy="854408"/>
+          <a:chOff x="10429875" y="15459075"/>
+          <a:chExt cx="514349" cy="459828"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -16895,8 +16864,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10458450" y="15430500"/>
-            <a:ext cx="485774" cy="488403"/>
+            <a:off x="10458450" y="15563781"/>
+            <a:ext cx="485774" cy="355122"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -16919,7 +16888,7 @@
         </xdr:style>
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
+            <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
@@ -24624,7 +24593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -24838,7 +24807,7 @@
         <v>42157</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -25106,15 +25075,15 @@
         <v>42185</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="H29" s="19" t="s">
         <v>784</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>785</v>
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
@@ -25377,7 +25346,7 @@
     </row>
     <row r="202" spans="2:3" s="69" customFormat="1">
       <c r="C202" s="69" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="203" spans="2:3" s="69" customFormat="1"/>
@@ -25423,17 +25392,17 @@
     <row r="231" spans="1:3" s="68" customFormat="1"/>
     <row r="232" spans="1:3" s="68" customFormat="1">
       <c r="A232" s="68" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="233" spans="1:3" s="68" customFormat="1">
       <c r="B233" s="68" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="234" spans="1:3" s="68" customFormat="1">
       <c r="C234" s="68" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="235" spans="1:3" s="68" customFormat="1"/>
@@ -25461,12 +25430,12 @@
     <row r="257" spans="2:3" s="68" customFormat="1"/>
     <row r="258" spans="2:3" s="68" customFormat="1">
       <c r="B258" s="70" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="259" spans="2:3" s="68" customFormat="1">
       <c r="C259" s="68" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="260" spans="2:3" s="68" customFormat="1"/>
@@ -25483,12 +25452,12 @@
     <row r="271" spans="2:3" s="68" customFormat="1"/>
     <row r="272" spans="2:3" s="68" customFormat="1">
       <c r="B272" s="68" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="273" spans="2:3" s="68" customFormat="1">
       <c r="C273" s="68" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="274" spans="2:3" s="68" customFormat="1"/>
@@ -25501,7 +25470,7 @@
     <row r="281" spans="2:3" s="68" customFormat="1"/>
     <row r="282" spans="2:3" s="68" customFormat="1">
       <c r="B282" s="68" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="283" spans="2:3" s="68" customFormat="1"/>
@@ -25513,7 +25482,7 @@
     <row r="289" spans="2:7" s="68" customFormat="1"/>
     <row r="290" spans="2:7" s="68" customFormat="1">
       <c r="B290" s="68" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -25548,12 +25517,12 @@
     <row r="308" spans="2:3" s="68" customFormat="1"/>
     <row r="309" spans="2:3" s="68" customFormat="1">
       <c r="B309" s="68" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="310" spans="2:3" s="68" customFormat="1">
       <c r="C310" s="68" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="311" spans="2:3" s="68" customFormat="1"/>
@@ -25688,7 +25657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
@@ -36877,7 +36846,7 @@
       <c r="G68" s="24"/>
       <c r="H68" s="24"/>
       <c r="I68" s="24" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
@@ -38171,7 +38140,7 @@
       <c r="F136" s="25"/>
       <c r="G136" s="25"/>
       <c r="H136" s="25" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I136" s="25"/>
       <c r="J136" s="25"/>
@@ -38330,8 +38299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -38342,10 +38311,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21">
       <c r="A1" s="72" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
@@ -38497,7 +38466,7 @@
       <c r="A44" s="72"/>
       <c r="G44" s="24"/>
       <c r="H44" s="24" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
@@ -38510,7 +38479,7 @@
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
       <c r="I45" s="24" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
@@ -38557,18 +38526,18 @@
     </row>
     <row r="50" spans="1:19" s="1" customFormat="1" ht="49.5">
       <c r="A50" s="37" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>790</v>
+        <v>876</v>
       </c>
     </row>
     <row r="51" spans="1:19" s="1" customFormat="1" ht="33">
       <c r="A51" s="72" t="s">
-        <v>861</v>
+        <v>877</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="52" spans="1:19" s="1" customFormat="1">
@@ -38576,7 +38545,7 @@
     </row>
     <row r="53" spans="1:19" s="1" customFormat="1" ht="49.5">
       <c r="A53" s="72" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="54" spans="1:19" s="1" customFormat="1">
@@ -38589,7 +38558,7 @@
     </row>
     <row r="56" spans="1:19" s="1" customFormat="1">
       <c r="A56" s="74" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
     </row>
     <row r="57" spans="1:19" s="1" customFormat="1">
@@ -38612,20 +38581,20 @@
     </row>
     <row r="63" spans="1:19" s="1" customFormat="1">
       <c r="A63" s="75" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="64" spans="1:19" s="1" customFormat="1">
       <c r="A64" s="72"/>
       <c r="I64" s="65" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="1" customFormat="1">
       <c r="A65" s="72"/>
       <c r="I65" s="65"/>
       <c r="J65" s="24" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="K65" s="24"/>
       <c r="L65" s="24"/>
@@ -38637,37 +38606,37 @@
       <c r="A66" s="72"/>
       <c r="I66" s="65"/>
       <c r="J66" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="67" spans="1:16" s="1" customFormat="1" ht="33">
       <c r="A67" s="75" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="I67" s="65"/>
       <c r="K67" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="68" spans="1:16" s="1" customFormat="1">
       <c r="A68" s="72"/>
       <c r="I68" s="65"/>
       <c r="L68" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="69" spans="1:16" s="1" customFormat="1">
       <c r="A69" s="72"/>
       <c r="I69" s="65"/>
       <c r="L69" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="70" spans="1:16" s="1" customFormat="1">
       <c r="A70" s="72"/>
       <c r="I70" s="65"/>
       <c r="K70" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
@@ -38677,12 +38646,12 @@
     </row>
     <row r="71" spans="1:16" s="1" customFormat="1">
       <c r="A71" s="75" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="I71" s="65"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -38691,12 +38660,12 @@
     </row>
     <row r="72" spans="1:16" s="1" customFormat="1" ht="33">
       <c r="A72" s="72" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="I72" s="65"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
@@ -38705,11 +38674,11 @@
     </row>
     <row r="73" spans="1:16" s="1" customFormat="1">
       <c r="A73" s="72" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="I73" s="65"/>
       <c r="K73" s="67" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="L73" s="67"/>
       <c r="M73" s="67"/>
@@ -38722,7 +38691,7 @@
       <c r="I74" s="65"/>
       <c r="K74" s="67"/>
       <c r="L74" s="67" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="M74" s="67"/>
       <c r="N74" s="67"/>
@@ -38734,7 +38703,7 @@
       <c r="I75" s="65"/>
       <c r="K75" s="67"/>
       <c r="L75" s="67" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="M75" s="67"/>
       <c r="N75" s="67"/>
@@ -38748,56 +38717,56 @@
     <row r="77" spans="1:16" s="1" customFormat="1">
       <c r="A77" s="72"/>
       <c r="I77" s="65" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="78" spans="1:16" s="1" customFormat="1">
       <c r="A78" s="72"/>
       <c r="I78" s="65"/>
       <c r="J78" s="1" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
     </row>
     <row r="79" spans="1:16" s="1" customFormat="1" ht="33">
       <c r="A79" s="75" t="s">
-        <v>853</v>
+        <v>879</v>
       </c>
       <c r="I79" s="65"/>
       <c r="K79" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="80" spans="1:16" s="1" customFormat="1" ht="33">
       <c r="A80" s="75" t="s">
-        <v>865</v>
+        <v>880</v>
       </c>
       <c r="I80" s="65"/>
       <c r="K80" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="81" spans="1:19" s="1" customFormat="1">
       <c r="A81" s="72"/>
       <c r="I81" s="65"/>
       <c r="J81" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="82" spans="1:19" s="1" customFormat="1">
       <c r="A82" s="75" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="I82" s="65"/>
       <c r="K82" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="83" spans="1:19" s="1" customFormat="1">
       <c r="A83" s="72" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="S83" s="36"/>
     </row>
@@ -38806,16 +38775,16 @@
     </row>
     <row r="85" spans="1:19" s="1" customFormat="1" ht="33">
       <c r="A85" s="72" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="J85" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="N85" s="1" t="s">
         <v>812</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="N85" s="1" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="86" spans="1:19" s="1" customFormat="1">
@@ -38827,22 +38796,22 @@
     <row r="88" spans="1:19" s="1" customFormat="1">
       <c r="A88" s="72"/>
       <c r="I88" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="89" spans="1:19" s="1" customFormat="1">
       <c r="A89" s="72"/>
       <c r="J89" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="90" spans="1:19" s="1" customFormat="1">
       <c r="A90" s="72"/>
       <c r="M90" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="91" spans="1:19" s="1" customFormat="1">
@@ -38851,7 +38820,7 @@
     <row r="92" spans="1:19" s="1" customFormat="1">
       <c r="A92" s="72"/>
       <c r="M92" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="93" spans="1:19" s="1" customFormat="1">
@@ -38860,13 +38829,13 @@
     <row r="94" spans="1:19" s="1" customFormat="1">
       <c r="A94" s="72"/>
       <c r="J94" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="95" spans="1:19" s="1" customFormat="1">
       <c r="A95" s="72"/>
       <c r="K95" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="96" spans="1:19" s="1" customFormat="1">
@@ -38874,7 +38843,7 @@
     </row>
     <row r="97" spans="1:21" s="1" customFormat="1" ht="33">
       <c r="A97" s="72" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
@@ -38892,10 +38861,10 @@
     </row>
     <row r="98" spans="1:21" s="1" customFormat="1">
       <c r="A98" s="75" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="B98" s="71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
@@ -38910,10 +38879,10 @@
     </row>
     <row r="99" spans="1:21" s="1" customFormat="1">
       <c r="A99" s="75" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="B99" s="71" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="6" t="s">
@@ -38944,7 +38913,7 @@
     </row>
     <row r="101" spans="1:21" s="1" customFormat="1" ht="33">
       <c r="A101" s="75" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>717</v>
@@ -38952,44 +38921,42 @@
     </row>
     <row r="102" spans="1:21" s="1" customFormat="1" ht="33">
       <c r="A102" s="75" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="103" spans="1:21" s="1" customFormat="1" ht="33">
       <c r="A103" s="75" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="104" spans="1:21" s="1" customFormat="1" ht="33">
       <c r="A104" s="75" t="s">
-        <v>857</v>
-      </c>
-      <c r="B104" s="36" t="s">
-        <v>833</v>
-      </c>
+        <v>881</v>
+      </c>
+      <c r="B104" s="36"/>
     </row>
     <row r="105" spans="1:21" s="1" customFormat="1">
       <c r="H105" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="106" spans="1:21" s="1" customFormat="1">
       <c r="A106" s="72"/>
       <c r="I106" s="24" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="U106" s="6"/>
     </row>
     <row r="107" spans="1:21" s="1" customFormat="1">
       <c r="A107" s="72"/>
       <c r="I107" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="U107" s="6"/>
     </row>
@@ -39000,7 +38967,7 @@
     <row r="109" spans="1:21" s="1" customFormat="1">
       <c r="A109" s="72"/>
       <c r="I109" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
@@ -39035,7 +39002,7 @@
     </row>
     <row r="111" spans="1:21" s="1" customFormat="1">
       <c r="A111" s="75" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="I111" s="6"/>
       <c r="J111" s="6" t="s">
@@ -39073,7 +39040,7 @@
     </row>
     <row r="113" spans="1:34" s="1" customFormat="1" ht="49.5">
       <c r="A113" s="37" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
@@ -39203,7 +39170,7 @@
       <c r="A120" s="72"/>
       <c r="I120" s="6"/>
       <c r="J120" s="6" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
@@ -39218,10 +39185,10 @@
     </row>
     <row r="121" spans="1:34" s="1" customFormat="1" ht="33">
       <c r="A121" s="72" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>868</v>
+        <v>883</v>
       </c>
       <c r="R121" s="6"/>
       <c r="S121" s="6"/>
@@ -39233,7 +39200,7 @@
     <row r="122" spans="1:34" s="1" customFormat="1">
       <c r="A122" s="72"/>
       <c r="J122" s="6" t="s">
-        <v>756</v>
+        <v>886</v>
       </c>
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
@@ -39242,10 +39209,10 @@
     </row>
     <row r="123" spans="1:34" s="1" customFormat="1" ht="49.5">
       <c r="A123" s="37" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
@@ -39254,10 +39221,10 @@
     </row>
     <row r="124" spans="1:34" s="1" customFormat="1" ht="33">
       <c r="A124" s="72" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
@@ -39270,10 +39237,10 @@
     </row>
     <row r="126" spans="1:34" s="1" customFormat="1" ht="33">
       <c r="A126" s="72" t="s">
-        <v>844</v>
+        <v>885</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="S126" s="36"/>
       <c r="AH126" s="6"/>
@@ -39281,25 +39248,25 @@
     <row r="127" spans="1:34" s="1" customFormat="1">
       <c r="A127" s="72"/>
       <c r="J127" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AH127" s="6"/>
     </row>
     <row r="128" spans="1:34" s="1" customFormat="1">
       <c r="A128" s="72" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AH128" s="6"/>
     </row>
     <row r="129" spans="1:34" s="1" customFormat="1">
       <c r="A129" s="72" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AH129" s="6"/>
     </row>
@@ -39310,14 +39277,14 @@
     <row r="131" spans="1:34" s="1" customFormat="1">
       <c r="A131" s="72"/>
       <c r="H131" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AH131" s="6"/>
     </row>
     <row r="132" spans="1:34" s="1" customFormat="1">
       <c r="A132" s="72"/>
       <c r="I132" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S132" s="6"/>
       <c r="AE132" s="6"/>
@@ -39326,22 +39293,22 @@
     </row>
     <row r="133" spans="1:34" s="1" customFormat="1" ht="33">
       <c r="A133" s="76" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="134" spans="1:34" s="1" customFormat="1">
       <c r="A134" s="72"/>
       <c r="I134" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="135" spans="1:34" s="1" customFormat="1">
       <c r="A135" s="72"/>
       <c r="I135" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="136" spans="1:34" s="1" customFormat="1">
@@ -39358,7 +39325,7 @@
     </row>
     <row r="138" spans="1:34" s="1" customFormat="1">
       <c r="A138" s="75" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="K138" s="1" t="s">
         <v>745</v>
@@ -39376,7 +39343,7 @@
     </row>
     <row r="140" spans="1:34" s="1" customFormat="1" ht="33">
       <c r="A140" s="75" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="S140" s="6"/>
       <c r="T140" s="63" t="s">
@@ -39386,7 +39353,7 @@
     </row>
     <row r="141" spans="1:34" s="1" customFormat="1" ht="33">
       <c r="A141" s="72" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="S141" s="6" t="s">
         <v>747</v>
@@ -39471,7 +39438,7 @@
     </row>
     <row r="149" spans="1:28" s="1" customFormat="1">
       <c r="A149" s="36" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="I149" s="24"/>
       <c r="J149" s="24"/>
@@ -39514,7 +39481,7 @@
     </row>
     <row r="152" spans="1:28" s="1" customFormat="1">
       <c r="A152" s="78" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B152" s="77"/>
       <c r="I152" s="24"/>
@@ -39531,7 +39498,7 @@
     </row>
     <row r="153" spans="1:28" s="1" customFormat="1">
       <c r="A153" s="78" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="B153" s="77"/>
       <c r="I153" s="24"/>
@@ -39548,7 +39515,7 @@
     </row>
     <row r="154" spans="1:28" s="1" customFormat="1">
       <c r="A154" s="79" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="B154" s="77"/>
       <c r="I154" s="24"/>
@@ -39565,7 +39532,7 @@
     </row>
     <row r="155" spans="1:28" s="1" customFormat="1">
       <c r="A155" s="78" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B155" s="77"/>
       <c r="J155" s="24"/>
@@ -39579,7 +39546,7 @@
     </row>
     <row r="156" spans="1:28" s="1" customFormat="1">
       <c r="A156" s="78" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B156" s="77"/>
       <c r="J156" s="1" t="s">
@@ -39588,7 +39555,7 @@
     </row>
     <row r="157" spans="1:28" s="1" customFormat="1">
       <c r="A157" s="79" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="B157" s="77"/>
       <c r="K157" s="1" t="s">
@@ -39597,7 +39564,7 @@
     </row>
     <row r="158" spans="1:28" s="1" customFormat="1">
       <c r="A158" s="79" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B158" s="77"/>
       <c r="K158" s="1" t="s">
@@ -39606,13 +39573,13 @@
     </row>
     <row r="159" spans="1:28" s="1" customFormat="1">
       <c r="A159" s="78" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="B159" s="77"/>
     </row>
     <row r="160" spans="1:28" s="1" customFormat="1">
       <c r="A160" s="79" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="B160" s="77"/>
       <c r="J160" s="24" t="s">
@@ -39627,7 +39594,7 @@
     </row>
     <row r="161" spans="1:16" s="1" customFormat="1">
       <c r="A161" s="79" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B161" s="77"/>
       <c r="J161" s="24" t="s">
@@ -39642,7 +39609,7 @@
     </row>
     <row r="162" spans="1:16" s="1" customFormat="1">
       <c r="A162" s="78" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B162" s="77"/>
     </row>
@@ -39659,7 +39626,7 @@
     </row>
     <row r="164" spans="1:16" s="1" customFormat="1">
       <c r="A164" s="1" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="J164" s="24"/>
       <c r="K164" s="24" t="s">
@@ -39684,7 +39651,7 @@
     </row>
     <row r="166" spans="1:16" s="1" customFormat="1">
       <c r="A166" s="1" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="J166" s="24"/>
       <c r="K166" s="24" t="s">
@@ -39714,13 +39681,13 @@
     <row r="169" spans="1:16" s="1" customFormat="1">
       <c r="A169" s="72"/>
       <c r="G169" s="65" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="170" spans="1:16" s="1" customFormat="1">
       <c r="A170" s="72"/>
       <c r="H170" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
@@ -39731,7 +39698,7 @@
       <c r="A171" s="72"/>
       <c r="H171" s="6"/>
       <c r="I171" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J171" s="6"/>
       <c r="K171" s="6"/>
@@ -39742,7 +39709,7 @@
       <c r="H172" s="6"/>
       <c r="I172" s="6"/>
       <c r="K172" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L172" s="6"/>
     </row>
@@ -39758,7 +39725,7 @@
       <c r="H174" s="6"/>
       <c r="I174" s="6"/>
       <c r="K174" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L174" s="6"/>
     </row>
@@ -39767,15 +39734,15 @@
     </row>
     <row r="176" spans="1:16" s="1" customFormat="1">
       <c r="A176" s="36" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="177" spans="1:24" s="1" customFormat="1">
       <c r="A177" s="36" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>173</v>
@@ -39783,7 +39750,7 @@
     </row>
     <row r="178" spans="1:24" s="1" customFormat="1">
       <c r="A178" s="36" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>174</v>
@@ -39830,7 +39797,7 @@
         <v>748</v>
       </c>
       <c r="V183" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="184" spans="1:24" s="1" customFormat="1">
@@ -39840,7 +39807,7 @@
         <v>267</v>
       </c>
       <c r="V184" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="185" spans="1:24" s="1" customFormat="1">
@@ -39873,7 +39840,7 @@
         <v>227</v>
       </c>
       <c r="U189" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="190" spans="1:24" s="1" customFormat="1">
@@ -39883,7 +39850,7 @@
       <c r="A191" s="72"/>
       <c r="G191" s="24"/>
       <c r="H191" s="24" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I191" s="24"/>
       <c r="J191" s="24"/>
@@ -39899,7 +39866,7 @@
       <c r="G192" s="24"/>
       <c r="H192" s="25"/>
       <c r="I192" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J192" s="25"/>
       <c r="K192" s="25"/>
@@ -39915,7 +39882,7 @@
       <c r="H193" s="25"/>
       <c r="I193" s="25"/>
       <c r="J193" s="25" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="K193" s="25"/>
       <c r="L193" s="25"/>
@@ -39942,7 +39909,7 @@
       <c r="G195" s="24"/>
       <c r="H195" s="25"/>
       <c r="I195" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J195" s="25"/>
       <c r="K195" s="25"/>
@@ -39958,7 +39925,7 @@
       <c r="H196" s="25"/>
       <c r="I196" s="25"/>
       <c r="J196" s="25" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K196" s="25"/>
       <c r="L196" s="25"/>
